--- a/Data_R_MSB_210/10539_13470_November.xlsx
+++ b/Data_R_MSB_210/10539_13470_November.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindreespedal/Downloads/Data_R_MSB_210/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sindreespedal/Documents/HVL /Vaar_2023/The_thesis/Data_R_MSB_210/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF919AA0-E46E-9D4C-A97B-C6EA6240CBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4B05D-E93B-5245-B8AC-E1B95DD9DD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="22300" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4600" yWindow="500" windowWidth="24200" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registrerte1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>10539: Registrerte arbeidsledige, etter statistikkvariabel, region, alder og måned</t>
   </si>
@@ -220,6 +220,42 @@
   </si>
   <si>
     <t>Hele landet</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
+    <t>Sauda</t>
+  </si>
+  <si>
+    <t>Bokn</t>
+  </si>
+  <si>
+    <t>Tysvær</t>
+  </si>
+  <si>
+    <t>Karmøy</t>
+  </si>
+  <si>
+    <t>Utsira</t>
+  </si>
+  <si>
+    <t>Vindafjord</t>
+  </si>
+  <si>
+    <t>Etne</t>
+  </si>
+  <si>
+    <t>Sveio</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>2020, november - Antall arbeidsledige</t>
+  </si>
+  <si>
+    <t>Arbeidsstyrken</t>
   </si>
 </sst>
 </file>
@@ -254,7 +290,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +315,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -292,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,15 +1358,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD82BF67-6967-F14F-BF43-F434145756D1}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:N28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -1519,6 +1563,71 @@
       </c>
       <c r="O5" s="7"/>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <f>B2/(B2+B3)*100</f>
+        <v>1.4028173410855738</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" ref="C6:N6" si="1">C2/(C2+C3)*100</f>
+        <v>2.6557791387187715</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9750851129681211</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.4405981932741216</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2051320811760702</v>
+      </c>
+      <c r="G6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.6381674825305481</v>
+      </c>
+      <c r="H6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9557558000257984</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1696271642795706</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="1"/>
+        <v>3.9741445724271407</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5524992052658151</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="1"/>
+        <v>2.3539113160163425</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" si="1"/>
+        <v>1.7815037987948652</v>
+      </c>
+      <c r="N6" s="11">
+        <f t="shared" si="1"/>
+        <v>3.3021934141856883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>57</v>
@@ -1532,6 +1641,19 @@
       <c r="D8" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>755</v>
+      </c>
+      <c r="H8">
+        <v>20835</v>
+      </c>
+      <c r="I8" s="7">
+        <f>G8/(G8+H8)*100</f>
+        <v>3.4969893469198703</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1549,6 +1671,19 @@
         <f>(B9/C9)*100</f>
         <v>1.422776293657861</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>1962</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" ref="I9:I16" si="2">G9/(G9+H9)*100</f>
+        <v>1.7526289434151225</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1563,9 +1698,19 @@
         <v>50069</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" ref="D10:D21" si="1">(B10/C10)*100</f>
+        <f t="shared" ref="D10:D21" si="3">(B10/C10)*100</f>
         <v>2.7282350356508016</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10">
+        <v>321</v>
+      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1580,8 +1725,21 @@
         <v>50158</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0663104589497188</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>163</v>
+      </c>
+      <c r="H11">
+        <v>4776</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="2"/>
+        <v>3.3002632111763512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1597,8 +1755,21 @@
         <v>51406</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5016535034820837</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>583</v>
+      </c>
+      <c r="H12">
+        <v>16056</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="2"/>
+        <v>3.503816335116293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1614,9 +1785,19 @@
         <v>51755</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2548546034199592</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13">
+        <v>91</v>
+      </c>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1631,8 +1812,21 @@
         <v>52110</v>
       </c>
       <c r="D14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.7096526578391864</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>119</v>
+      </c>
+      <c r="H14">
+        <v>4900</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="2"/>
+        <v>2.3709902370990235</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1648,8 +1842,21 @@
         <v>52663</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0457816683439987</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>1612</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="2"/>
+        <v>3.3573141486810552</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1665,8 +1872,21 @@
         <v>51252</v>
       </c>
       <c r="D16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.351049715133068</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>1494</v>
+      </c>
+      <c r="I16" s="7">
+        <f>G16/(G16+H16)*100</f>
+        <v>4.2921204356181937</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1682,7 +1902,7 @@
         <v>51104</v>
       </c>
       <c r="D17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1386192861615534</v>
       </c>
     </row>
@@ -1699,7 +1919,7 @@
         <v>52112</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.6193583051888241</v>
       </c>
     </row>
@@ -1716,7 +1936,7 @@
         <v>52102</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.4106560208821159</v>
       </c>
     </row>
@@ -1733,7 +1953,7 @@
         <v>52486</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8138170178714323</v>
       </c>
     </row>
@@ -1750,7 +1970,7 @@
         <v>52065</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.4149620666474596</v>
       </c>
     </row>
@@ -1919,52 +2139,106 @@
         <v>1.7813854331146799</v>
       </c>
       <c r="C30" s="7">
-        <f t="shared" ref="C30:N30" si="2">(C27/C28)*100</f>
+        <f t="shared" ref="C30:N30" si="4">(C27/C28)*100</f>
         <v>2.6145363978628762</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7558612458725649</v>
       </c>
       <c r="E30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4041754862703018</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3369245512072032</v>
       </c>
       <c r="G30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6055364642993508</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.6795084228270101</v>
       </c>
       <c r="I30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0479803347164336</v>
       </c>
       <c r="J30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9902198225166758</v>
       </c>
       <c r="K30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4256817425472095</v>
       </c>
       <c r="L30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3265962299250815</v>
       </c>
       <c r="M30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1935216326819744</v>
       </c>
       <c r="N30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0643405920921616</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="11">
+        <f>B27/(B27+B28)*100</f>
+        <v>1.7502074918063597</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" ref="C31:N31" si="5">C27/(C27+C28)*100</f>
+        <v>2.5479200994736733</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6819504137855303</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.3477318916479519</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.2835594888703699</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.5393721957741757</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.6095843893145481</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.9578263686644828</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.9034017285036673</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.3682358772522489</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.2736964930381176</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="5"/>
+        <v>2.1464390282646604</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="5"/>
+        <v>3.9056035611885775</v>
       </c>
     </row>
   </sheetData>
